--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_286__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_286__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.05569979548454285</c:v>
+                  <c:v>-0.05569606646895409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5112785696983337</c:v>
+                  <c:v>-0.5112767219543457</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>47.02774810791016</c:v>
@@ -5429,58 +5429,58 @@
                   <c:v>45.14360809326172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.48443222045898</c:v>
+                  <c:v>45.48442840576172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.072413206100464</c:v>
+                  <c:v>2.072415113449097</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.1666518300771713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1842313259840012</c:v>
+                  <c:v>-0.1842331886291504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.3186388611793518</c:v>
+                  <c:v>-0.3186425864696503</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1299786269664764</c:v>
+                  <c:v>0.129976749420166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0777063369751</c:v>
+                  <c:v>10.07771015167236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.03163909912109</c:v>
+                  <c:v>48.03163528442383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.08953477442264557</c:v>
+                  <c:v>-0.08953104913234711</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2545232176780701</c:v>
+                  <c:v>0.2545213401317596</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>47.35187149047852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.87248420715332</c:v>
+                  <c:v>5.872486114501953</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.03923172131180763</c:v>
+                  <c:v>-0.03923358768224716</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>46.15187072753906</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07020796090364456</c:v>
+                  <c:v>0.0702042281627655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.3470827043056488</c:v>
+                  <c:v>-0.3470882773399353</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.879093170166016</c:v>
+                  <c:v>7.879090309143066</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.1527273505926132</c:v>
+                  <c:v>-0.1527292132377625</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>49.09969711303711</c:v>
@@ -5489,28 +5489,28 @@
                   <c:v>-0.1140681207180023</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.3161474764347076</c:v>
+                  <c:v>-0.3161493539810181</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.04963545501232147</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.2041809856891632</c:v>
+                  <c:v>-0.2041847258806229</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.8285026550293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.09788163751363754</c:v>
+                  <c:v>-0.09787790477275848</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.33343505859375</c:v>
+                  <c:v>38.33343887329102</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.1147394552826881</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.04002239927649498</c:v>
+                  <c:v>-0.04002612829208374</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>39.24549865722656</c:v>
@@ -5531,10 +5531,10 @@
                   <c:v>16.74647331237793</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.87056350708008</c:v>
+                  <c:v>35.87055969238281</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.2476159781217575</c:v>
+                  <c:v>-0.247619703412056</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>42.85253524780273</c:v>
@@ -5546,19 +5546,19 @@
                   <c:v>-0.3985587060451508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.1210872381925583</c:v>
+                  <c:v>-0.1210909709334373</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.8976936936378479</c:v>
+                  <c:v>-0.8976899385452271</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1102937608957291</c:v>
+                  <c:v>0.1102900356054306</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.61373233795166</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.2763208746910095</c:v>
+                  <c:v>-0.2763227522373199</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>50.26303100585938</c:v>
@@ -5570,28 +5570,28 @@
                   <c:v>-0.340002030134201</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.156570702791214</c:v>
+                  <c:v>-0.1565669775009155</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1713156998157501</c:v>
+                  <c:v>0.1713119745254517</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.07736880332231522</c:v>
+                  <c:v>-0.07737066596746445</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-0.1605222225189209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.946305751800537</c:v>
+                  <c:v>4.946303844451904</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.286884993314743</c:v>
+                  <c:v>-0.2868887186050415</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.4116216599941254</c:v>
+                  <c:v>-0.4116253852844238</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.2154854238033295</c:v>
+                  <c:v>-0.2154891490936279</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.1311459839344025</c:v>
@@ -5603,28 +5603,28 @@
                   <c:v>-0.2195189893245697</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.3467656672000885</c:v>
+                  <c:v>-0.3467675447463989</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.6469206213951111</c:v>
+                  <c:v>0.6469168663024902</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.3066742718219757</c:v>
+                  <c:v>-0.3066761493682861</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.1265044957399368</c:v>
+                  <c:v>-0.1265007704496384</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1516140699386597</c:v>
+                  <c:v>0.1516121923923492</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>50.54293823242188</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.1633623242378235</c:v>
+                  <c:v>-0.1633585840463638</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.4883937239646912</c:v>
+                  <c:v>0.4883974492549896</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-0.1626592874526978</c:v>
@@ -5633,55 +5633,55 @@
                   <c:v>-0.7514950037002563</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.06602520495653152</c:v>
+                  <c:v>0.06602147966623306</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>51.02476501464844</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.49539184570312</c:v>
+                  <c:v>46.49539566040039</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.4687013924121857</c:v>
+                  <c:v>-0.4687051475048065</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13.46393585205078</c:v>
+                  <c:v>13.4639368057251</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.4357335567474365</c:v>
+                  <c:v>-0.4357316792011261</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.05378277972340584</c:v>
+                  <c:v>-0.05378091335296631</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.0332382470369339</c:v>
+                  <c:v>-0.03323638066649437</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.09406252205371857</c:v>
+                  <c:v>-0.09405878931283951</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.6264767646789551</c:v>
+                  <c:v>-0.626474916934967</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.2026126831769943</c:v>
+                  <c:v>-0.2026052325963974</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.004132403060793877</c:v>
+                  <c:v>-0.004136132542043924</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-0.1604457646608353</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>41.39958190917969</c:v>
+                  <c:v>41.39957809448242</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>-0.2048150151968002</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.3949577808380127</c:v>
+                  <c:v>-0.3949503302574158</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.0857660099864006</c:v>
+                  <c:v>-0.08576414734125137</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>-1.062840580940247</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.05569979548454285</v>
+        <v>-0.05569606646895409</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.5112785696983337</v>
+        <v>-0.5112767219543457</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6507,7 +6507,7 @@
         <v>45.684</v>
       </c>
       <c r="F6">
-        <v>45.48443222045898</v>
+        <v>45.48442840576172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>2.072413206100464</v>
+        <v>2.072415113449097</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.1842313259840012</v>
+        <v>-0.1842331886291504</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-0.3186388611793518</v>
+        <v>-0.3186425864696503</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1299786269664764</v>
+        <v>0.129976749420166</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.0777063369751</v>
+        <v>10.07771015167236</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>48.03163909912109</v>
+        <v>48.03163528442383</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.08953477442264557</v>
+        <v>-0.08953104913234711</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2545232176780701</v>
+        <v>0.2545213401317596</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>5.87248420715332</v>
+        <v>5.872486114501953</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.03923172131180763</v>
+        <v>-0.03923358768224716</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.07020796090364456</v>
+        <v>0.0702042281627655</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-0.3470827043056488</v>
+        <v>-0.3470882773399353</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>7.879093170166016</v>
+        <v>7.879090309143066</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.1527273505926132</v>
+        <v>-0.1527292132377625</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.3161474764347076</v>
+        <v>-0.3161493539810181</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.2041809856891632</v>
+        <v>-0.2041847258806229</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.09788163751363754</v>
+        <v>-0.09787790477275848</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>52.8303</v>
       </c>
       <c r="F31">
-        <v>38.33343505859375</v>
+        <v>38.33343887329102</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.04002239927649498</v>
+        <v>-0.04002612829208374</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>35.87056350708008</v>
+        <v>35.87055969238281</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.2476159781217575</v>
+        <v>-0.247619703412056</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.1210872381925583</v>
+        <v>-0.1210909709334373</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.8976936936378479</v>
+        <v>-0.8976899385452271</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.1102937608957291</v>
+        <v>0.1102900356054306</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.2763208746910095</v>
+        <v>-0.2763227522373199</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.156570702791214</v>
+        <v>-0.1565669775009155</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.1713156998157501</v>
+        <v>0.1713119745254517</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.07736880332231522</v>
+        <v>-0.07737066596746445</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4.946305751800537</v>
+        <v>4.946303844451904</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-0.286884993314743</v>
+        <v>-0.2868887186050415</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.4116216599941254</v>
+        <v>-0.4116253852844238</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.2154854238033295</v>
+        <v>-0.2154891490936279</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.3467656672000885</v>
+        <v>-0.3467675447463989</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.6469206213951111</v>
+        <v>0.6469168663024902</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.3066742718219757</v>
+        <v>-0.3066761493682861</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.1265044957399368</v>
+        <v>-0.1265007704496384</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.1516140699386597</v>
+        <v>0.1516121923923492</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.1633623242378235</v>
+        <v>-0.1633585840463638</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.4883937239646912</v>
+        <v>0.4883974492549896</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.06602520495653152</v>
+        <v>0.06602147966623306</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>46.49539184570312</v>
+        <v>46.49539566040039</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.4687013924121857</v>
+        <v>-0.4687051475048065</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>13.46393585205078</v>
+        <v>13.4639368057251</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.4357335567474365</v>
+        <v>-0.4357316792011261</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.05378277972340584</v>
+        <v>-0.05378091335296631</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.0332382470369339</v>
+        <v>-0.03323638066649437</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-0.09406252205371857</v>
+        <v>-0.09405878931283951</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>-0.6264767646789551</v>
+        <v>-0.626474916934967</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.2026126831769943</v>
+        <v>-0.2026052325963974</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.004132403060793877</v>
+        <v>-0.004136132542043924</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>41.39958190917969</v>
+        <v>41.39957809448242</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.3949577808380127</v>
+        <v>-0.3949503302574158</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.0857660099864006</v>
+        <v>-0.08576414734125137</v>
       </c>
     </row>
     <row r="91" spans="1:6">
